--- a/biology/Zoologie/John_James_Lewis_Bonhote/John_James_Lewis_Bonhote.xlsx
+++ b/biology/Zoologie/John_James_Lewis_Bonhote/John_James_Lewis_Bonhote.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John James Lewis Bonhote est un ornithologue britannique, né en 1875 à Londres et mort en 1922.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à Harrow School et au Trinity College où il reçoit un Master of Arts. Il devient le secrétaire privé du gouverneur des Bahamas en 1897, puis sous-directeur du jardin zoologique de Gizeh en Égypte de 1913 à 1919. Bonhote fut le cosecrétaire, avec Ernst Hartert (1859-1933), du Quatrième congrès international ornithologique de Londres en 1905, secrétaire et trésorier de la Société d’aviculture, secrétaire de la British Ornithologists' Union de 1907 à 1913 et trésorier-secrétaire du British Ornithologists' Club de 1920 à 1922. Il est également membre de la Linnean Society of London et la Zoological Society of London.
 Bonhote est notamment l’auteur de Birds of Britain (1907) et Vigour and Heredity (1915).
@@ -543,7 +557,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Biographie sur le site du Natural History Museum</t>
         </is>
@@ -573,7 +589,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Traduction de l'article de langue anglaise de Wikipédia (version du 20 mars 2007).</t>
         </is>
